--- a/Mifos Automation Excels/Client/Scenario7-Chaithanyaprod-TR2-LATE-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/Scenario7-Chaithanyaprod-TR2-LATE-Makerepayment2.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -594,7 +594,7 @@
         <v>5861.58</v>
       </c>
       <c r="F3" s="7">
-        <v>4171.83</v>
+        <v>4171.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2865</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2863</v>
+        <v>231</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2861</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2859</v>
+        <v>227</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
